--- a/data/trans_orig/P70D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA8AB78-7334-4CCD-A556-EFA83E6D04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BF8FE2-3A9D-410E-B8A4-7F9AB8E8EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D9FEBF6-E086-42D9-8CB0-7B6949E5B45E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{600B79EA-E9A8-4480-AF3A-0573BFB78C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>91,29%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>77,9%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FF260C-7C42-4334-9A8C-B50FAF52A5FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC91F4F4-AC0F-4F72-BFC0-8665AB6AE3B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BF8FE2-3A9D-410E-B8A4-7F9AB8E8EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0636BE-BB00-4F49-98AF-190C90808D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{600B79EA-E9A8-4480-AF3A-0573BFB78C3C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C90181CA-7360-4B09-99E6-8A61CEB62F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC91F4F4-AC0F-4F72-BFC0-8665AB6AE3B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631BAAE8-B233-488C-8FFD-92DDD6E72053}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>11481</v>
+        <v>10645</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>19548</v>
+        <v>16154</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>31029</v>
+        <v>26799</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>120390</v>
+        <v>119250</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>68896</v>
+        <v>63628</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>227</v>
       </c>
       <c r="N5" s="7">
-        <v>189287</v>
+        <v>182878</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>140</v>
       </c>
       <c r="D6" s="7">
-        <v>131871</v>
+        <v>129895</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="7">
-        <v>88444</v>
+        <v>79782</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>260</v>
       </c>
       <c r="N6" s="7">
-        <v>220316</v>
+        <v>209677</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>46535</v>
+        <v>43700</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>50180</v>
+        <v>45804</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="7">
-        <v>96715</v>
+        <v>89504</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>1041</v>
       </c>
       <c r="D8" s="7">
-        <v>1184357</v>
+        <v>1334098</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>1193</v>
       </c>
       <c r="I8" s="7">
-        <v>892287</v>
+        <v>898830</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>2234</v>
       </c>
       <c r="N8" s="7">
-        <v>2076644</v>
+        <v>2232928</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1090</v>
       </c>
       <c r="D9" s="7">
-        <v>1230892</v>
+        <v>1377798</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>1264</v>
       </c>
       <c r="I9" s="7">
-        <v>942467</v>
+        <v>944634</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>2354</v>
       </c>
       <c r="N9" s="7">
-        <v>2173359</v>
+        <v>2322432</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>18266</v>
+        <v>17785</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,31 +1151,31 @@
         <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>23236</v>
+        <v>21051</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>41502</v>
+        <v>38836</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,46 +1187,46 @@
         <v>424</v>
       </c>
       <c r="D11" s="7">
-        <v>447869</v>
+        <v>432809</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
       </c>
       <c r="I11" s="7">
-        <v>449187</v>
+        <v>417239</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1043</v>
       </c>
       <c r="N11" s="7">
-        <v>897056</v>
+        <v>850049</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1238,7 @@
         <v>437</v>
       </c>
       <c r="D12" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>650</v>
       </c>
       <c r="I12" s="7">
-        <v>472423</v>
+        <v>438290</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1087</v>
       </c>
       <c r="N12" s="7">
-        <v>938558</v>
+        <v>888885</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,46 +1291,46 @@
         <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>76282</v>
+        <v>72129</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>92964</v>
+        <v>83009</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
       </c>
       <c r="N13" s="7">
-        <v>169246</v>
+        <v>155138</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>1591</v>
       </c>
       <c r="D14" s="7">
-        <v>1752616</v>
+        <v>1886159</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1913</v>
       </c>
       <c r="I14" s="7">
-        <v>1410371</v>
+        <v>1379697</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>3504</v>
       </c>
       <c r="N14" s="7">
-        <v>3162987</v>
+        <v>3265856</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>1667</v>
       </c>
       <c r="D15" s="7">
-        <v>1828898</v>
+        <v>1958288</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>2034</v>
       </c>
       <c r="I15" s="7">
-        <v>1503335</v>
+        <v>1462706</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>3701</v>
       </c>
       <c r="N15" s="7">
-        <v>3332233</v>
+        <v>3420994</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
